--- a/mixs-templates/Mimag_plus_combinations/MimagHostAssociated.xlsx
+++ b/mixs-templates/Mimag_plus_combinations/MimagHostAssociated.xlsx
@@ -949,7 +949,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="11">
+  <dataValidations count="13">
     <dataValidation sqref="G2:G1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"contigs,reads"</formula1>
     </dataValidation>
@@ -965,6 +965,9 @@
     <dataValidation sqref="AB2:AB1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"other,paired,single,vector"</formula1>
     </dataValidation>
+    <dataValidation sqref="AD2:AD1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Finished genome,High-quality draft genome,Medium-quality draft genome,Low-quality draft genome,Genome fragment(s)"</formula1>
+    </dataValidation>
     <dataValidation sqref="AI2:AI1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DNA-free PCR mix,distilled water,empty collection device,empty collection tube,phosphate buffer,sterile swab,sterile syringe"</formula1>
     </dataValidation>
@@ -973,6 +976,9 @@
     </dataValidation>
     <dataValidation sqref="AX2:AX1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"marker gene,other,reference based"</formula1>
+    </dataValidation>
+    <dataValidation sqref="BL2:BL1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"breeder's line,clonal selection,hybrid,inbred line,mutant,natural,semi-natural,wild"</formula1>
     </dataValidation>
     <dataValidation sqref="BO2:BO1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"active surveillance in response to an outbreak,active surveillance not initiated by an outbreak,farm sample,market sample,other"</formula1>
